--- a/output.xlsx
+++ b/output.xlsx
@@ -5,16 +5,42 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alefanfi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alefanfi/eclipse-workspace/ISW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7294AF96-6222-E14C-886B-7F0C815E9AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0FB9290D-5F8C-4944-AED7-3EF1E44E96E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Date">output!$B$31:$B$52</definedName>
+    <definedName name="FALCON_1138">output!$B$51</definedName>
+    <definedName name="FALCON_1171">output!$B$50</definedName>
+    <definedName name="FALCON_1187">output!$B$49</definedName>
+    <definedName name="FALCON_1201">output!$B$48</definedName>
+    <definedName name="FALCON_1202">output!$B$47</definedName>
+    <definedName name="FALCON_1210">output!$B$46</definedName>
+    <definedName name="FALCON_1218">output!$B$45</definedName>
+    <definedName name="FALCON_1241">output!$B$44</definedName>
+    <definedName name="FALCON_1242">output!$B$43</definedName>
+    <definedName name="FALCON_1318">output!$B$42</definedName>
+    <definedName name="FALCON_1319">output!$B$41</definedName>
+    <definedName name="FALCON_1332">output!$B$40</definedName>
+    <definedName name="FALCON_1338">output!$B$39</definedName>
+    <definedName name="FALCON_1838">output!$B$38</definedName>
+    <definedName name="FALCON_1858">output!$B$37</definedName>
+    <definedName name="FALCON_1901">output!$B$36</definedName>
+    <definedName name="FALCON_1902">output!$B$35</definedName>
+    <definedName name="FALCON_1925">output!$B$34</definedName>
+    <definedName name="FALCON_2127">output!$B$33</definedName>
+    <definedName name="FALCON_2133">output!$B$32</definedName>
+    <definedName name="FALCON_2273">output!$B$31</definedName>
+    <definedName name="FALCON_690">output!$B$52</definedName>
+    <definedName name="Ticket">output!$B$31:$B$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="32" uniqueCount="32">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="90" uniqueCount="44">
   <si>
     <t>Ticket</t>
   </si>
@@ -44,9 +70,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>estremi</t>
-  </si>
-  <si>
     <t>FALCON-2273</t>
   </si>
   <si>
@@ -129,6 +152,45 @@
   </si>
   <si>
     <t>Media-3*DevStandard</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2017/JANUARY</t>
+  </si>
+  <si>
+    <t>2016/AUGUST</t>
+  </si>
+  <si>
+    <t>2016/APRIL</t>
+  </si>
+  <si>
+    <t>2016/MAY</t>
+  </si>
+  <si>
+    <t>2015/JULY</t>
+  </si>
+  <si>
+    <t>2015/MAY</t>
+  </si>
+  <si>
+    <t>2015/APRIL</t>
+  </si>
+  <si>
+    <t>2015/MARCH</t>
+  </si>
+  <si>
+    <t>2014/AUGUST</t>
+  </si>
+  <si>
+    <t>Num.Ticket</t>
+  </si>
+  <si>
+    <t>Avarage</t>
+  </si>
+  <si>
+    <t>Dev. Standard</t>
   </si>
 </sst>
 </file>
@@ -460,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <start/>
       <end/>
@@ -575,17 +637,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start/>
-      <end/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -635,10 +686,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -770,10 +821,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>output!$E$2:$E$10</c:f>
+              <c:f>output!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -797,19 +848,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$F$2:$F$10</c:f>
+              <c:f>output!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -832,9 +880,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -978,10 +1023,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8878443529541403E-2"/>
-          <c:y val="6.7461645295387562E-2"/>
-          <c:w val="0.90007934796371281"/>
-          <c:h val="0.86639401610522104"/>
+          <c:x val="8.6898492388689463E-2"/>
+          <c:y val="7.6571073070474852E-2"/>
+          <c:w val="0.89005428688977772"/>
+          <c:h val="0.88461319597133536"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1028,10 +1073,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$E$2:$E$10</c:f>
+              <c:f>output!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1055,19 +1100,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$F$2:$F$10</c:f>
+              <c:f>output!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1090,9 +1132,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1146,10 +1185,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$E$2:$E$10</c:f>
+              <c:f>output!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1173,45 +1212,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$G$2:$G$10</c:f>
+              <c:f>output!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4444444444444446</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,10 +1286,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$E$2:$E$10</c:f>
+              <c:f>output!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1280,45 +1313,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$L$2:$L$10</c:f>
+              <c:f>output!$U$2:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.119238775621788</c:v>
+                  <c:v>17.070315239945963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.119238775621788</c:v>
+                  <c:v>17.070315239945963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.119238775621788</c:v>
+                  <c:v>17.070315239945963</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.119238775621788</c:v>
+                  <c:v>17.070315239945963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.119238775621788</c:v>
+                  <c:v>17.070315239945963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.119238775621788</c:v>
+                  <c:v>17.070315239945963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.119238775621788</c:v>
+                  <c:v>17.070315239945963</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.119238775621788</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.119238775621788</c:v>
+                  <c:v>17.070315239945963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,10 +1385,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$E$2:$E$10</c:f>
+              <c:f>output!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -1385,45 +1412,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$O$2:$O$10</c:f>
+              <c:f>output!$X$2:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-11.230349886732897</c:v>
+                  <c:v>-11.570315239945961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.230349886732897</c:v>
+                  <c:v>-11.570315239945961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11.230349886732897</c:v>
+                  <c:v>-11.570315239945961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.230349886732897</c:v>
+                  <c:v>-11.570315239945961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11.230349886732897</c:v>
+                  <c:v>-11.570315239945961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.230349886732897</c:v>
+                  <c:v>-11.570315239945961</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-11.230349886732897</c:v>
+                  <c:v>-11.570315239945961</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.230349886732897</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-11.230349886732897</c:v>
+                  <c:v>-11.570315239945961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,7 +1529,7 @@
         </c:txPr>
         <c:crossAx val="336991808"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -1559,7 +1580,7 @@
         </c:txPr>
         <c:crossAx val="352800912"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2215,15 +2236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>155574</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>173672</xdr:rowOff>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2264,14 +2285,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9417E322-C82B-D841-997D-0AA65DC806A8}" name="Tabella3" displayName="Tabella3" ref="E1:G10" totalsRowShown="0">
-  <autoFilter ref="E1:G10" xr:uid="{E7DDB025-6563-7C4D-A893-FC9C7C5D9F45}"/>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9417E322-C82B-D841-997D-0AA65DC806A8}" name="Tabella3" displayName="Tabella3" ref="E1:G9" totalsRowShown="0">
+  <autoFilter ref="E1:G9" xr:uid="{E7DDB025-6563-7C4D-A893-FC9C7C5D9F45}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4C94E7B3-3129-D247-A058-B17B34318804}" name="Anni" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{33C2AD6C-FEA6-3B43-AD59-FDD3164C88E8}" name="Tickets" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{44117C13-FADB-1940-9D64-930F1CDF18DC}" name="Average"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CDCF76A3-ACE8-8D48-9A01-F511143168F7}" name="Tabella6" displayName="Tabella6" ref="A30:B52" totalsRowShown="0">
+  <autoFilter ref="A30:B52" xr:uid="{775CBDD6-BB8D-BA43-8F4D-8C36294CE697}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{80A1B1EA-CE38-BF4C-AD6B-D20EACC1F397}" name="Ticket"/>
+    <tableColumn id="2" xr3:uid="{42D0685E-9871-E94C-89D8-8A869A397F71}" name="Date"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B667282-5013-3B43-B2B7-670B8CEF852C}" name="Tabella7" displayName="Tabella7" ref="D30:F43" totalsRowShown="0">
+  <autoFilter ref="D30:F43" xr:uid="{EA84B93E-32BD-A748-AC33-E711FFEDDF5E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{31AB8619-24F4-2440-936C-571D54A63C8E}" name="Num.Ticket"/>
+    <tableColumn id="2" xr3:uid="{887608D9-AD78-D745-833F-83E5496D9844}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{ED42746C-709C-3747-BF82-1E64410C3F93}" name="Avarage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2572,19 +2616,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2594,31 +2642,28 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -2632,26 +2677,26 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
+      <c r="G2" s="3">
+        <f>AVERAGE(F2:F9)</f>
+        <v>2.75</v>
       </c>
       <c r="I2">
         <f>STDEV(Tabella3[Tickets])</f>
-        <v>4.5582647770591143</v>
-      </c>
-      <c r="L2">
+        <v>4.7734384133153203</v>
+      </c>
+      <c r="U2">
         <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O2">
+        <v>17.070315239945963</v>
+      </c>
+      <c r="X2">
         <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-11.570315239945961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -2665,25 +2710,22 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="L3">
+      <c r="G3" s="3">
+        <f>AVERAGE(F2:F9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="U3">
         <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O3">
+        <v>17.070315239945963</v>
+      </c>
+      <c r="X3">
         <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-      <c r="R3">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-11.570315239945961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -2697,27 +2739,24 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="L4">
+      <c r="G4" s="3">
+        <f>AVERAGE(F2:F9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="U4">
         <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O4">
+        <v>17.070315239945963</v>
+      </c>
+      <c r="X4">
         <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-      <c r="R4">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-11.570315239945961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -2731,25 +2770,22 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="L5">
+      <c r="G5" s="3">
+        <f>AVERAGE(F2:F9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="U5">
         <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O5">
+        <v>17.070315239945963</v>
+      </c>
+      <c r="X5">
         <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-      <c r="R5">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-11.570315239945961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -2763,25 +2799,22 @@
       <c r="F6" s="2">
         <v>13</v>
       </c>
-      <c r="G6">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="L6">
+      <c r="G6" s="3">
+        <f>AVERAGE(F2:F9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="U6">
         <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O6">
+        <v>17.070315239945963</v>
+      </c>
+      <c r="X6">
         <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-      <c r="R6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-11.570315239945961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -2795,25 +2828,22 @@
       <c r="F7" s="2">
         <v>7</v>
       </c>
-      <c r="G7">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="L7">
+      <c r="G7" s="3">
+        <f>AVERAGE(F2:F9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="U7">
         <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O7">
+        <v>17.070315239945963</v>
+      </c>
+      <c r="X7">
         <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-      <c r="R7">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-11.570315239945961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -2827,25 +2857,22 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="L8">
+      <c r="G8" s="3">
+        <f>AVERAGE(F2:F9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="U8">
         <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O8">
+        <v>17.070315239945963</v>
+      </c>
+      <c r="X8">
         <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-      <c r="R8">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-11.570315239945961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -2859,25 +2886,22 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="L9">
+      <c r="G9" s="3">
+        <f>AVERAGE(F2:F9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="U9">
         <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O9">
+        <v>17.070315239945963</v>
+      </c>
+      <c r="X9">
         <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-      <c r="R9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-11.570315239945961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2015</v>
@@ -2885,31 +2909,13 @@
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>AVERAGE(F2:F10)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="L10">
-        <f>SUM(G2,PRODUCT(3,I2))</f>
-        <v>16.119238775621788</v>
-      </c>
-      <c r="O10">
-        <f>SUM(G2,-PRODUCT(3,I2))</f>
-        <v>-11.230349886732897</v>
-      </c>
-      <c r="R10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>2015</v>
@@ -2919,13 +2925,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="R11">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2015</v>
@@ -2934,9 +2937,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2015</v>
@@ -2945,9 +2948,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2015</v>
@@ -2956,9 +2959,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>2015</v>
@@ -2967,9 +2970,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>2015</v>
@@ -2977,12 +2980,12 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -2990,12 +2993,12 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -3006,7 +3009,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -3017,7 +3020,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>2015</v>
@@ -3050,13 +3053,356 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>2014</v>
       </c>
       <c r="C23">
         <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <f>COUNTIF(B31:B52,"2011")</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2011</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="H31">
+        <f>STDEV(D31:D52)</f>
+        <v>1.887883090687176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <f>COUNTIF(B31:B52,"2012")</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2012</v>
+      </c>
+      <c r="F32">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <f>COUNTIF(B31:B52,"2013")</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2013</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <f>COUNTIF(B31:B52,"2014/AUGUST")</f>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <f>COUNTIF(B31:B52,"2015/MARCH")</f>
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <f>COUNTIF(B31:B52,"2015/APRIL")</f>
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <f>COUNTIF(B31:B52,"2015/MAY")</f>
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <f>COUNTIF(B31:B52,"2015/JULY")</f>
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <f>COUNTIF(B31:B52,"2016/APRIL")</f>
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40">
+        <f>COUNTIF(B31:B52,"2016/MAY")</f>
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <f>COUNTIF(B31:B52,"2016/AUGUST")</f>
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <f>COUNTIF(B31:B52,"2017/JANUARY")</f>
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <f>COUNTIF(B31:B52,"2018")</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2018</v>
+      </c>
+      <c r="F43">
+        <f>AVERAGE(D31:D43)</f>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3066,9 +3412,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>